--- a/nonroot_calculations_plotted.xlsx
+++ b/nonroot_calculations_plotted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csana\OneDrive\Documents\Munka\TheWorks\absorption_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94207EC-56C5-4B99-9CD3-4FF23011E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D94740CD-9035-4608-8A2C-E36DF000F110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,6 +154,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,7 +180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1564,6 +1564,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1589,7 +1590,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1627,7 +1628,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173321039"/>
@@ -1683,6 +1684,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1708,7 +1710,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1746,7 +1748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448161487"/>
@@ -1798,12 +1800,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1811,7 +1814,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1835,7 +1837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1887,6 +1889,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1912,7 +1915,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3296,6 +3299,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3321,7 +3325,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3359,7 +3363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173321039"/>
@@ -3415,6 +3419,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3440,7 +3445,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3478,7 +3483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448161487"/>
@@ -3530,12 +3535,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3543,7 +3549,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3567,7 +3572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3619,6 +3624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4429,6 +4435,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4472,7 +4479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173321039"/>
@@ -4528,6 +4535,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4571,7 +4579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448161487"/>
@@ -4616,7 +4624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4632,7 +4640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6170,11 +6178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A0039B-E689-4C7F-97FA-707316876654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
